--- a/training_data/2008/standings.xlsx
+++ b/training_data/2008/standings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex_1/Desktop/MVP-Predictor/training_data/2008/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA90D529-1166-3F46-AF50-B7ABCABE90AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52105E0-B729-224B-9F18-3627B8B932B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{0BCC865D-AA9D-564E-B288-689915AC4443}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A4:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:C36"/>
+      <selection activeCell="E6" sqref="E6:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
